--- a/.\Excel\resultados.xlsx
+++ b/.\Excel\resultados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="297">
   <si>
     <t>Mandante</t>
   </si>
@@ -775,6 +775,66 @@
     <t>Grêmio x Sport</t>
   </si>
   <si>
+    <t>Atlético-MG x Palmeiras</t>
+  </si>
+  <si>
+    <t>Vasco x Grêmio</t>
+  </si>
+  <si>
+    <t>São Paulo x Ponte Preta</t>
+  </si>
+  <si>
+    <t>Atlético-PR x Coritiba</t>
+  </si>
+  <si>
+    <t>Santos x Corinthians</t>
+  </si>
+  <si>
+    <t>Sport x Avaí</t>
+  </si>
+  <si>
+    <t>Vitória x Fluminense</t>
+  </si>
+  <si>
+    <t>Botafogo x Flamengo</t>
+  </si>
+  <si>
+    <t>Chapecoense x Cruzeiro</t>
+  </si>
+  <si>
+    <t>Atlético-GO x Bahia</t>
+  </si>
+  <si>
+    <t>Botafogo x Santos</t>
+  </si>
+  <si>
+    <t>Ponte Preta x Atlético-GO</t>
+  </si>
+  <si>
+    <t>Avaí x Atlético-MG</t>
+  </si>
+  <si>
+    <t>Flamengo x Sport</t>
+  </si>
+  <si>
+    <t>Corinthians x Vasco</t>
+  </si>
+  <si>
+    <t>Atlético-PR x Fluminense</t>
+  </si>
+  <si>
+    <t>Grêmio x Chapecoense</t>
+  </si>
+  <si>
+    <t>Vitória x São Paulo</t>
+  </si>
+  <si>
+    <t>Cruzeiro x Bahia</t>
+  </si>
+  <si>
+    <t>Palmeiras x Coritiba</t>
+  </si>
+  <si>
     <t>01ª RODADA</t>
   </si>
   <si>
@@ -839,6 +899,12 @@
   </si>
   <si>
     <t>22ª RODADA</t>
+  </si>
+  <si>
+    <t>23ª RODADA</t>
+  </si>
+  <si>
+    <t>24ª RODADA</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1262,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G231"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1242,7 +1308,7 @@
         <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1265,7 +1331,7 @@
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1288,7 +1354,7 @@
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1311,7 +1377,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1334,7 +1400,7 @@
         <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1357,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1380,7 +1446,7 @@
         <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1403,7 +1469,7 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1426,7 +1492,7 @@
         <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1449,7 +1515,7 @@
         <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1472,7 +1538,7 @@
         <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1495,7 +1561,7 @@
         <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1518,7 +1584,7 @@
         <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1541,7 +1607,7 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1564,7 +1630,7 @@
         <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1587,7 +1653,7 @@
         <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1610,7 +1676,7 @@
         <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1633,7 +1699,7 @@
         <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1656,7 +1722,7 @@
         <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1679,7 +1745,7 @@
         <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1702,7 +1768,7 @@
         <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1725,7 +1791,7 @@
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1748,7 +1814,7 @@
         <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1771,7 +1837,7 @@
         <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1794,7 +1860,7 @@
         <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1817,7 +1883,7 @@
         <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1840,7 +1906,7 @@
         <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1863,7 +1929,7 @@
         <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1886,7 +1952,7 @@
         <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1909,7 +1975,7 @@
         <v>62</v>
       </c>
       <c r="G31" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1932,7 +1998,7 @@
         <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1955,7 +2021,7 @@
         <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1978,7 +2044,7 @@
         <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2001,7 +2067,7 @@
         <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2024,7 +2090,7 @@
         <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2047,7 +2113,7 @@
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2070,7 +2136,7 @@
         <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2093,7 +2159,7 @@
         <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2116,7 +2182,7 @@
         <v>71</v>
       </c>
       <c r="G40" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2139,7 +2205,7 @@
         <v>72</v>
       </c>
       <c r="G41" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2162,7 +2228,7 @@
         <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2185,7 +2251,7 @@
         <v>74</v>
       </c>
       <c r="G43" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2208,7 +2274,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2231,7 +2297,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2254,7 +2320,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2277,7 +2343,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2300,7 +2366,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2323,7 +2389,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2346,7 +2412,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2369,7 +2435,7 @@
         <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2392,7 +2458,7 @@
         <v>83</v>
       </c>
       <c r="G52" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2415,7 +2481,7 @@
         <v>84</v>
       </c>
       <c r="G53" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2438,7 +2504,7 @@
         <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2461,7 +2527,7 @@
         <v>86</v>
       </c>
       <c r="G55" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2484,7 +2550,7 @@
         <v>87</v>
       </c>
       <c r="G56" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2507,7 +2573,7 @@
         <v>88</v>
       </c>
       <c r="G57" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2530,7 +2596,7 @@
         <v>89</v>
       </c>
       <c r="G58" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2553,7 +2619,7 @@
         <v>90</v>
       </c>
       <c r="G59" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2576,7 +2642,7 @@
         <v>91</v>
       </c>
       <c r="G60" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2599,7 +2665,7 @@
         <v>92</v>
       </c>
       <c r="G61" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2622,7 +2688,7 @@
         <v>93</v>
       </c>
       <c r="G62" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2645,7 +2711,7 @@
         <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2668,7 +2734,7 @@
         <v>95</v>
       </c>
       <c r="G64" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2691,7 +2757,7 @@
         <v>96</v>
       </c>
       <c r="G65" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2714,7 +2780,7 @@
         <v>97</v>
       </c>
       <c r="G66" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2737,7 +2803,7 @@
         <v>98</v>
       </c>
       <c r="G67" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2760,7 +2826,7 @@
         <v>99</v>
       </c>
       <c r="G68" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2783,7 +2849,7 @@
         <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2806,7 +2872,7 @@
         <v>101</v>
       </c>
       <c r="G70" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2829,7 +2895,7 @@
         <v>102</v>
       </c>
       <c r="G71" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2852,7 +2918,7 @@
         <v>103</v>
       </c>
       <c r="G72" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2875,7 +2941,7 @@
         <v>104</v>
       </c>
       <c r="G73" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2898,7 +2964,7 @@
         <v>105</v>
       </c>
       <c r="G74" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2921,7 +2987,7 @@
         <v>106</v>
       </c>
       <c r="G75" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2944,7 +3010,7 @@
         <v>107</v>
       </c>
       <c r="G76" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2967,7 +3033,7 @@
         <v>108</v>
       </c>
       <c r="G77" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2990,7 +3056,7 @@
         <v>109</v>
       </c>
       <c r="G78" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3013,7 +3079,7 @@
         <v>110</v>
       </c>
       <c r="G79" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3036,7 +3102,7 @@
         <v>111</v>
       </c>
       <c r="G80" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3059,7 +3125,7 @@
         <v>112</v>
       </c>
       <c r="G81" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3082,7 +3148,7 @@
         <v>113</v>
       </c>
       <c r="G82" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3105,7 +3171,7 @@
         <v>114</v>
       </c>
       <c r="G83" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3128,7 +3194,7 @@
         <v>115</v>
       </c>
       <c r="G84" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3151,7 +3217,7 @@
         <v>116</v>
       </c>
       <c r="G85" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3174,7 +3240,7 @@
         <v>117</v>
       </c>
       <c r="G86" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3197,7 +3263,7 @@
         <v>118</v>
       </c>
       <c r="G87" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3220,7 +3286,7 @@
         <v>119</v>
       </c>
       <c r="G88" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3243,7 +3309,7 @@
         <v>120</v>
       </c>
       <c r="G89" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3266,7 +3332,7 @@
         <v>121</v>
       </c>
       <c r="G90" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3289,7 +3355,7 @@
         <v>122</v>
       </c>
       <c r="G91" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3312,7 +3378,7 @@
         <v>123</v>
       </c>
       <c r="G92" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3335,7 +3401,7 @@
         <v>124</v>
       </c>
       <c r="G93" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3358,7 +3424,7 @@
         <v>125</v>
       </c>
       <c r="G94" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3381,7 +3447,7 @@
         <v>126</v>
       </c>
       <c r="G95" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3404,7 +3470,7 @@
         <v>127</v>
       </c>
       <c r="G96" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3427,7 +3493,7 @@
         <v>128</v>
       </c>
       <c r="G97" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3450,7 +3516,7 @@
         <v>129</v>
       </c>
       <c r="G98" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3473,7 +3539,7 @@
         <v>130</v>
       </c>
       <c r="G99" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3496,7 +3562,7 @@
         <v>131</v>
       </c>
       <c r="G100" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3519,7 +3585,7 @@
         <v>132</v>
       </c>
       <c r="G101" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3542,7 +3608,7 @@
         <v>133</v>
       </c>
       <c r="G102" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3565,7 +3631,7 @@
         <v>134</v>
       </c>
       <c r="G103" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3588,7 +3654,7 @@
         <v>135</v>
       </c>
       <c r="G104" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3611,7 +3677,7 @@
         <v>136</v>
       </c>
       <c r="G105" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3634,7 +3700,7 @@
         <v>137</v>
       </c>
       <c r="G106" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3657,7 +3723,7 @@
         <v>138</v>
       </c>
       <c r="G107" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3680,7 +3746,7 @@
         <v>139</v>
       </c>
       <c r="G108" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3703,7 +3769,7 @@
         <v>140</v>
       </c>
       <c r="G109" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3726,7 +3792,7 @@
         <v>141</v>
       </c>
       <c r="G110" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3749,7 +3815,7 @@
         <v>142</v>
       </c>
       <c r="G111" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3757,22 +3823,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C112" t="s">
         <v>26</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F112" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G112" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3780,22 +3846,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E113" t="s">
         <v>26</v>
       </c>
       <c r="F113" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="G113" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3803,22 +3869,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>31</v>
       </c>
       <c r="D114" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
         <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G114" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3826,22 +3892,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C115" t="s">
         <v>26</v>
       </c>
       <c r="D115" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F115" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G115" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3849,22 +3915,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E116" t="s">
         <v>26</v>
       </c>
       <c r="F116" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G116" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3872,22 +3938,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D117" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F117" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G117" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3895,22 +3961,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D118" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F118" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G118" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3918,22 +3984,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E119" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F119" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G119" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3941,22 +4007,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F120" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G120" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3964,22 +4030,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E121" t="s">
         <v>27</v>
       </c>
       <c r="F121" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G121" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3987,22 +4053,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C122" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D122" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E122" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F122" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G122" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4010,22 +4076,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
         <v>30</v>
       </c>
       <c r="D123" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F123" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G123" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4033,22 +4099,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E124" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F124" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G124" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4056,22 +4122,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D125" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G125" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4079,22 +4145,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" t="s">
+        <v>30</v>
+      </c>
+      <c r="D126" t="s">
         <v>10</v>
       </c>
-      <c r="C126" t="s">
-        <v>27</v>
-      </c>
-      <c r="D126" t="s">
-        <v>9</v>
-      </c>
       <c r="E126" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F126" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G126" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4102,22 +4168,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F127" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G127" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4125,22 +4191,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E128" t="s">
         <v>26</v>
       </c>
       <c r="F128" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G128" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4148,22 +4214,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C129" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D129" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E129" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F129" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G129" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4171,22 +4237,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
       </c>
       <c r="D130" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G130" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4194,22 +4260,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" t="s">
         <v>15</v>
       </c>
-      <c r="C131" t="s">
-        <v>30</v>
-      </c>
-      <c r="D131" t="s">
-        <v>24</v>
-      </c>
       <c r="E131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F131" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G131" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4217,22 +4283,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E132" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F132" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="G132" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4240,22 +4306,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E133" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F133" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G133" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4263,22 +4329,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C134" t="s">
         <v>30</v>
       </c>
       <c r="D134" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E134" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F134" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G134" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4286,22 +4352,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E135" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F135" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G135" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4309,22 +4375,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F136" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G136" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4332,22 +4398,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C137" t="s">
         <v>26</v>
       </c>
       <c r="D137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E137" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G137" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4355,22 +4421,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D138" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E138" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F138" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="G138" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4378,22 +4444,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D139" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E139" t="s">
         <v>31</v>
       </c>
       <c r="F139" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G139" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4401,22 +4467,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F140" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="G140" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4424,22 +4490,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C141" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E141" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F141" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G141" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4447,22 +4513,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D142" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F142" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G142" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4470,22 +4536,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F143" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G143" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4493,22 +4559,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E144" t="s">
         <v>30</v>
       </c>
       <c r="F144" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G144" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4516,22 +4582,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F145" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="G145" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4539,22 +4605,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D146" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E146" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F146" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G146" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4562,22 +4628,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C147" t="s">
         <v>26</v>
       </c>
       <c r="D147" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F147" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="G147" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4585,22 +4651,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D148" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F148" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="G148" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4608,22 +4674,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>26</v>
       </c>
       <c r="D149" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F149" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G149" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4631,22 +4697,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C150" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D150" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E150" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F150" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G150" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4654,22 +4720,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" t="s">
         <v>23</v>
       </c>
-      <c r="C151" t="s">
-        <v>31</v>
-      </c>
-      <c r="D151" t="s">
-        <v>24</v>
-      </c>
       <c r="E151" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F151" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G151" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4677,7 +4743,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C152" t="s">
         <v>26</v>
@@ -4686,13 +4752,13 @@
         <v>18</v>
       </c>
       <c r="E152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F152" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G152" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4700,22 +4766,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F153" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G153" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4723,22 +4789,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D154" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
         <v>30</v>
       </c>
       <c r="F154" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G154" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4746,7 +4812,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>30</v>
@@ -4755,13 +4821,13 @@
         <v>7</v>
       </c>
       <c r="E155" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F155" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G155" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4769,10 +4835,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D156" t="s">
         <v>9</v>
@@ -4781,10 +4847,10 @@
         <v>31</v>
       </c>
       <c r="F156" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G156" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4792,22 +4858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
         <v>26</v>
       </c>
       <c r="D157" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
         <v>30</v>
       </c>
       <c r="F157" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G157" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4818,19 +4884,19 @@
         <v>20</v>
       </c>
       <c r="C158" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D158" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E158" t="s">
         <v>31</v>
       </c>
       <c r="F158" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G158" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4838,22 +4904,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C159" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E159" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F159" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G159" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4861,22 +4927,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E160" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F160" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G160" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4884,22 +4950,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C161" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D161" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E161" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F161" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G161" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4907,22 +4973,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C162" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D162" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E162" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F162" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="G162" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4930,22 +4996,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
         <v>31</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E163" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F163" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G163" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4953,22 +5019,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D164" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F164" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G164" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4976,22 +5042,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E165" t="s">
         <v>26</v>
       </c>
       <c r="F165" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G165" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4999,22 +5065,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C166" t="s">
         <v>30</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E166" t="s">
         <v>31</v>
       </c>
       <c r="F166" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="G166" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5022,22 +5088,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
         <v>26</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E167" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F167" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G167" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5045,22 +5111,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D168" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F168" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G168" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5068,22 +5134,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D169" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E169" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F169" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G169" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5091,22 +5157,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C170" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D170" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E170" t="s">
         <v>26</v>
       </c>
       <c r="F170" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G170" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5114,22 +5180,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C171" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D171" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E171" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F171" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G171" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5137,22 +5203,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D172" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E172" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F172" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G172" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5160,22 +5226,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D173" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F173" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G173" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5183,22 +5249,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C174" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D174" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E174" t="s">
         <v>31</v>
       </c>
       <c r="F174" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G174" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5206,22 +5272,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C175" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D175" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E175" t="s">
         <v>26</v>
       </c>
       <c r="F175" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G175" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5229,22 +5295,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D176" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E176" t="s">
         <v>31</v>
       </c>
       <c r="F176" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G176" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5252,22 +5318,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C177" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D177" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E177" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F177" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G177" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5275,22 +5341,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C178" t="s">
         <v>30</v>
       </c>
       <c r="D178" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E178" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F178" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="G178" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5298,22 +5364,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C179" t="s">
         <v>26</v>
       </c>
       <c r="D179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E179" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F179" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G179" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5321,22 +5387,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C180" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D180" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E180" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F180" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G180" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5344,22 +5410,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C181" t="s">
         <v>30</v>
       </c>
       <c r="D181" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F181" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="G181" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5367,22 +5433,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D182" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E182" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F182" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G182" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5390,22 +5456,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D183" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E183" t="s">
         <v>26</v>
       </c>
       <c r="F183" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G183" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5413,22 +5479,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>30</v>
       </c>
       <c r="D184" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E184" t="s">
         <v>31</v>
       </c>
       <c r="F184" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G184" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5436,22 +5502,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D185" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E185" t="s">
         <v>26</v>
       </c>
       <c r="F185" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G185" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5459,22 +5525,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" t="s">
+        <v>30</v>
+      </c>
+      <c r="D186" t="s">
         <v>23</v>
       </c>
-      <c r="C186" t="s">
-        <v>26</v>
-      </c>
-      <c r="D186" t="s">
-        <v>9</v>
-      </c>
       <c r="E186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F186" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G186" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5482,22 +5548,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D187" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F187" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G187" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5505,22 +5571,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C188" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D188" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E188" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F188" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G188" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5528,22 +5594,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>31</v>
+      </c>
+      <c r="D189" t="s">
         <v>25</v>
       </c>
-      <c r="C189" t="s">
-        <v>26</v>
-      </c>
-      <c r="D189" t="s">
-        <v>15</v>
-      </c>
       <c r="E189" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F189" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="G189" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5551,22 +5617,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C190" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D190" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E190" t="s">
         <v>30</v>
       </c>
       <c r="F190" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="G190" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5574,22 +5640,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C191" t="s">
         <v>30</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E191" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F191" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G191" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5597,22 +5663,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D192" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E192" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F192" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="G192" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5620,22 +5686,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D193" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E193" t="s">
         <v>26</v>
       </c>
       <c r="F193" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G193" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5643,22 +5709,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C194" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D194" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
         <v>31</v>
       </c>
       <c r="F194" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G194" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5666,22 +5732,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" t="s">
         <v>9</v>
       </c>
-      <c r="C195" t="s">
-        <v>30</v>
-      </c>
-      <c r="D195" t="s">
-        <v>21</v>
-      </c>
       <c r="E195" t="s">
         <v>26</v>
       </c>
       <c r="F195" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="G195" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5689,22 +5755,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D196" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E196" t="s">
         <v>30</v>
       </c>
       <c r="F196" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="G196" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5712,22 +5778,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D197" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E197" t="s">
         <v>30</v>
       </c>
       <c r="F197" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="G197" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5735,22 +5801,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
+        <v>23</v>
+      </c>
+      <c r="C198" t="s">
+        <v>26</v>
+      </c>
+      <c r="D198" t="s">
         <v>14</v>
       </c>
-      <c r="C198" t="s">
-        <v>31</v>
-      </c>
-      <c r="D198" t="s">
-        <v>20</v>
-      </c>
       <c r="E198" t="s">
         <v>30</v>
       </c>
       <c r="F198" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="G198" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5758,22 +5824,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
+        <v>21</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
         <v>11</v>
       </c>
-      <c r="C199" t="s">
-        <v>31</v>
-      </c>
-      <c r="D199" t="s">
-        <v>25</v>
-      </c>
       <c r="E199" t="s">
         <v>26</v>
       </c>
       <c r="F199" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G199" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5781,22 +5847,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C200" t="s">
         <v>30</v>
       </c>
       <c r="D200" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E200" t="s">
         <v>30</v>
       </c>
       <c r="F200" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G200" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5804,22 +5870,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C201" t="s">
         <v>30</v>
       </c>
       <c r="D201" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F201" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="G201" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5827,22 +5893,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D202" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E202" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F202" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G202" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5850,22 +5916,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D203" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E203" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F203" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="G203" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5873,22 +5939,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F204" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G204" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5896,22 +5962,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C205" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E205" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F205" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G205" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5919,22 +5985,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D206" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E206" t="s">
         <v>30</v>
       </c>
       <c r="F206" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G206" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5942,22 +6008,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C207" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D207" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E207" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F207" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G207" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5965,22 +6031,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C208" t="s">
         <v>26</v>
       </c>
       <c r="D208" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E208" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F208" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G208" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5988,22 +6054,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D209" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E209" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F209" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G209" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6011,22 +6077,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" t="s">
+        <v>30</v>
+      </c>
+      <c r="D210" t="s">
         <v>16</v>
       </c>
-      <c r="C210" t="s">
-        <v>30</v>
-      </c>
-      <c r="D210" t="s">
-        <v>8</v>
-      </c>
       <c r="E210" t="s">
         <v>30</v>
       </c>
       <c r="F210" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="G210" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6034,22 +6100,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D211" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E211" t="s">
         <v>26</v>
       </c>
       <c r="F211" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="G211" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6057,22 +6123,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>30</v>
       </c>
       <c r="D212" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E212" t="s">
         <v>26</v>
       </c>
       <c r="F212" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G212" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6080,22 +6146,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D213" t="s">
         <v>17</v>
       </c>
       <c r="E213" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F213" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="G213" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6103,10 +6169,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D214" t="s">
         <v>21</v>
@@ -6115,10 +6181,10 @@
         <v>30</v>
       </c>
       <c r="F214" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="G214" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6126,22 +6192,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D215" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E215" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F215" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="G215" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6152,19 +6218,19 @@
         <v>11</v>
       </c>
       <c r="C216" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D216" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E216" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F216" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="G216" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6175,19 +6241,19 @@
         <v>12</v>
       </c>
       <c r="C217" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D217" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E217" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F217" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="G217" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6195,22 +6261,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C218" t="s">
         <v>26</v>
       </c>
       <c r="D218" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E218" t="s">
         <v>26</v>
       </c>
       <c r="F218" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G218" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6218,22 +6284,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C219" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D219" t="s">
         <v>18</v>
       </c>
       <c r="E219" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F219" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G219" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6247,16 +6313,16 @@
         <v>30</v>
       </c>
       <c r="D220" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E220" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F220" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="G220" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6264,22 +6330,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C221" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D221" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E221" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F221" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="G221" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6287,22 +6353,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C222" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D222" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E222" t="s">
         <v>26</v>
       </c>
       <c r="F222" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G222" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6310,22 +6376,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C223" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D223" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E223" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F223" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G223" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6333,22 +6399,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C224" t="s">
         <v>31</v>
       </c>
       <c r="D224" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E224" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F224" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G224" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6356,22 +6422,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C225" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D225" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E225" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F225" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="G225" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6379,22 +6445,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C226" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D226" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E226" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F226" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="G226" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6402,22 +6468,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C227" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D227" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E227" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F227" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G227" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6425,22 +6491,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C228" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D228" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E228" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F228" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="G228" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6448,22 +6514,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C229" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D229" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E229" t="s">
         <v>30</v>
       </c>
       <c r="F229" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G229" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6471,22 +6537,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C230" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D230" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F230" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="G230" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6494,22 +6560,252 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
+        <v>17</v>
+      </c>
+      <c r="C231" t="s">
+        <v>26</v>
+      </c>
+      <c r="D231" t="s">
+        <v>11</v>
+      </c>
+      <c r="E231" t="s">
+        <v>26</v>
+      </c>
+      <c r="F231" t="s">
+        <v>262</v>
+      </c>
+      <c r="G231" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>23</v>
+      </c>
+      <c r="C232" t="s">
+        <v>31</v>
+      </c>
+      <c r="D232" t="s">
+        <v>16</v>
+      </c>
+      <c r="E232" t="s">
+        <v>30</v>
+      </c>
+      <c r="F232" t="s">
+        <v>263</v>
+      </c>
+      <c r="G232" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" t="s">
+        <v>26</v>
+      </c>
+      <c r="D233" t="s">
+        <v>17</v>
+      </c>
+      <c r="E233" t="s">
+        <v>27</v>
+      </c>
+      <c r="F233" t="s">
+        <v>264</v>
+      </c>
+      <c r="G233" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234" t="s">
+        <v>26</v>
+      </c>
+      <c r="D234" t="s">
+        <v>20</v>
+      </c>
+      <c r="E234" t="s">
+        <v>26</v>
+      </c>
+      <c r="F234" t="s">
+        <v>265</v>
+      </c>
+      <c r="G234" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" t="s">
+        <v>31</v>
+      </c>
+      <c r="D235" t="s">
+        <v>24</v>
+      </c>
+      <c r="E235" t="s">
+        <v>30</v>
+      </c>
+      <c r="F235" t="s">
+        <v>266</v>
+      </c>
+      <c r="G235" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" t="s">
+        <v>26</v>
+      </c>
+      <c r="D236" t="s">
+        <v>19</v>
+      </c>
+      <c r="E236" t="s">
+        <v>30</v>
+      </c>
+      <c r="F236" t="s">
+        <v>267</v>
+      </c>
+      <c r="G236" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>21</v>
+      </c>
+      <c r="C237" t="s">
+        <v>27</v>
+      </c>
+      <c r="D237" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237" t="s">
+        <v>26</v>
+      </c>
+      <c r="F237" t="s">
+        <v>268</v>
+      </c>
+      <c r="G237" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
         <v>14</v>
       </c>
-      <c r="C231" t="s">
-        <v>32</v>
-      </c>
-      <c r="D231" t="s">
-        <v>24</v>
-      </c>
-      <c r="E231" t="s">
-        <v>30</v>
-      </c>
-      <c r="F231" t="s">
-        <v>252</v>
-      </c>
-      <c r="G231" t="s">
-        <v>274</v>
+      <c r="C238" t="s">
+        <v>30</v>
+      </c>
+      <c r="D238" t="s">
+        <v>18</v>
+      </c>
+      <c r="E238" t="s">
+        <v>26</v>
+      </c>
+      <c r="F238" t="s">
+        <v>269</v>
+      </c>
+      <c r="G238" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239" t="s">
+        <v>26</v>
+      </c>
+      <c r="D239" t="s">
+        <v>25</v>
+      </c>
+      <c r="E239" t="s">
+        <v>31</v>
+      </c>
+      <c r="F239" t="s">
+        <v>270</v>
+      </c>
+      <c r="G239" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>10</v>
+      </c>
+      <c r="C240" t="s">
+        <v>26</v>
+      </c>
+      <c r="D240" t="s">
+        <v>11</v>
+      </c>
+      <c r="E240" t="s">
+        <v>30</v>
+      </c>
+      <c r="F240" t="s">
+        <v>271</v>
+      </c>
+      <c r="G240" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>9</v>
+      </c>
+      <c r="C241" t="s">
+        <v>26</v>
+      </c>
+      <c r="D241" t="s">
+        <v>15</v>
+      </c>
+      <c r="E241" t="s">
+        <v>30</v>
+      </c>
+      <c r="F241" t="s">
+        <v>272</v>
+      </c>
+      <c r="G241" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
